--- a/biology/Histoire de la zoologie et de la botanique/Constantin_Wilhelm_Lambert_Gloger/Constantin_Wilhelm_Lambert_Gloger.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Constantin_Wilhelm_Lambert_Gloger/Constantin_Wilhelm_Lambert_Gloger.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Constantin Wilhelm Lambert Gloger est un zoologiste et un ornithologue prussien, né le 17 septembre 1803 à Kasischka, arrondissement de Grottkau et mort le 30 décembre 1863[1] à Berlin.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Constantin Wilhelm Lambert Gloger est un zoologiste et un ornithologue prussien, né le 17 septembre 1803 à Kasischka, arrondissement de Grottkau et mort le 30 décembre 1863 à Berlin.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait des études d'histoire naturelle à Berlin (1824-1825), il commence à étudier les oiseaux dans les monts Métallifères (une chaîne de montagnes d’Allemagne et en République tchèque). Il obtient son doctorat à l'université de Breslau en 1830 et devient membre de l'Académie allemande des sciences Leopoldina. Il commence enseigner dans le primaire à Breslau. Il part à Berlin en 1834 où il travaille au musée de zoologie de Berlin (l'actuel musée d'histoire naturelle de Berlin). En 1853, il participe à la parution de Journal für Ornithologie.
 Il est assistant à la rédaction du Journal für ornithologie. Gloger reçoit une bourse de trois ans de la part du ministère prussien de l'agriculture afin de rédiger une loi pour protéger les oiseaux.
@@ -545,7 +559,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Zur Naturgeschichte des weißbindigen Kreuzschnabels loxia taenioptera (1829)
 Schlesiens Wirbelthier-Fauna (1833)
